--- a/平均餘命.xlsx
+++ b/平均餘命.xlsx
@@ -44,7 +44,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="183" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot; &quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -128,7 +128,7 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -179,6 +179,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>國人平均餘命</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -239,14 +265,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$A$2:$A$14</c:f>
+              <c:f>工作表1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>111</c:v>
                 </c:pt>
@@ -285,16 +323,112 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$14</c:f>
+              <c:f>工作表1!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>79.841879220291901</c:v>
                 </c:pt>
@@ -333,6 +467,48 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00&quot; &quot;">
                   <c:v>79.182333454000002</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>78.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>78.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>78.36</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>77.89</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>77.41</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>77.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>77.33</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>77.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>76.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>76.45</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>75.75</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>75.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>74.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,7 +516,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E497-46F7-A4A8-7A30A9A7ACF7}"/>
+              <c16:uniqueId val="{00000000-1E26-4810-BD2F-9C348568C609}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -368,14 +544,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$A$2:$A$14</c:f>
+              <c:f>工作表1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>111</c:v>
                 </c:pt>
@@ -414,16 +602,112 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$14</c:f>
+              <c:f>工作表1!$C$2:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>76.633178153213905</c:v>
                 </c:pt>
@@ -462,6 +746,102 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00&quot; &quot;">
                   <c:v>76.131965940000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>76.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>75.56</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>75.44</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>74.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>74.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>74.67</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>74.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>74.58</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>74.06</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>73.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>73.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>73.12</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>72.97</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>72.37</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>71.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>71.83</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>71.62</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>71.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>71.83</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>71.33</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>71.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>70.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>71.09</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>70.97</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>70.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>70.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>69.84</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>69.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>69.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>69.36</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>69.150000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,7 +849,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E497-46F7-A4A8-7A30A9A7ACF7}"/>
+              <c16:uniqueId val="{00000001-1E26-4810-BD2F-9C348568C609}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -497,14 +877,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$A$2:$A$14</c:f>
+              <c:f>工作表1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>111</c:v>
                 </c:pt>
@@ -543,16 +935,112 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$14</c:f>
+              <c:f>工作表1!$D$2:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>83.275725988355504</c:v>
                 </c:pt>
@@ -591,6 +1079,102 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00&quot; &quot;">
                   <c:v>82.548589509999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>82.31</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>81.92</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>80.78</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>80.73</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>80.31</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>80.22</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>79.55</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>78.97</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>78.92</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>78.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>77.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>77.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>77.59</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>77.22</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>77.14</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>76.75</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>76.47</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>76.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>76.31</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>75.88</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>75.81</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>75.53</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>75.08</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>74.86</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>74.64</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>74.55</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>74.47</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>74.319999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,7 +1182,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E497-46F7-A4A8-7A30A9A7ACF7}"/>
+              <c16:uniqueId val="{00000002-1E26-4810-BD2F-9C348568C609}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -610,12 +1194,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099904159"/>
-        <c:axId val="2099905407"/>
+        <c:axId val="275852591"/>
+        <c:axId val="275855503"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099904159"/>
+        <c:axId val="275852591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +1243,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099905407"/>
+        <c:crossAx val="275855503"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -666,9 +1251,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099905407"/>
+        <c:axId val="275855503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -717,7 +1303,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099904159"/>
+        <c:crossAx val="275852591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -839,7 +1425,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -947,11 +1533,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -962,11 +1543,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -998,9 +1574,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1359,19 +1932,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="3" name="圖表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1652,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2119,95 +2692,138 @@
       <c r="A35">
         <v>78</v>
       </c>
+      <c r="C35" s="16">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="D35" s="16">
+        <v>76.47</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
         <v>77</v>
       </c>
+      <c r="C36" s="16">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="D36" s="16">
+        <v>76.209999999999994</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
         <v>76</v>
       </c>
+      <c r="C37" s="16">
+        <v>71.09</v>
+      </c>
+      <c r="D37" s="16">
+        <v>76.31</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
         <v>75</v>
       </c>
+      <c r="C38" s="16">
+        <v>70.97</v>
+      </c>
+      <c r="D38" s="16">
+        <v>75.88</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
         <v>74</v>
       </c>
+      <c r="C39" s="16">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="D39" s="16">
+        <v>75.81</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
         <v>73</v>
       </c>
+      <c r="C40" s="16">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="D40" s="16">
+        <v>75.53</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
         <v>72</v>
       </c>
+      <c r="C41" s="16">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="D41" s="16">
+        <v>75.08</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
         <v>71</v>
       </c>
+      <c r="C42" s="16">
+        <v>69.84</v>
+      </c>
+      <c r="D42" s="16">
+        <v>74.86</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
         <v>70</v>
       </c>
+      <c r="C43" s="16">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="D43" s="16">
+        <v>74.64</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
         <v>69</v>
       </c>
+      <c r="C44" s="16">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="D44" s="16">
+        <v>74.55</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
         <v>68</v>
       </c>
+      <c r="C45" s="16">
+        <v>69.36</v>
+      </c>
+      <c r="D45" s="16">
+        <v>74.47</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
-        <v>61</v>
+      <c r="C46" s="16">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="D46" s="16">
+        <v>74.319999999999993</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>